--- a/data_year/zb/国民经济核算/投入产出完全消耗系数/其他制造业投入产出完全消耗系数.xlsx
+++ b/data_year/zb/国民经济核算/投入产出完全消耗系数/其他制造业投入产出完全消耗系数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,280 +523,222 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.428968439473066</v>
+        <v>0.449291662777462</v>
       </c>
       <c r="C2" t="n">
-        <v>0.036771481090975</v>
+        <v>0.040351770316885</v>
       </c>
       <c r="D2" t="n">
-        <v>0.168225115774264</v>
+        <v>0.193817144941568</v>
       </c>
       <c r="E2" t="n">
-        <v>0.344203581470464</v>
+        <v>0.358111224027917</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002110596650282</v>
+        <v>0.002734036416939</v>
       </c>
       <c r="G2" t="n">
-        <v>0.038554774562739</v>
+        <v>0.049466414438227</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07457430972931101</v>
+        <v>0.085494440320472</v>
       </c>
       <c r="I2" t="n">
-        <v>0.192324824037676</v>
+        <v>0.202226406591198</v>
       </c>
       <c r="J2" t="n">
-        <v>0.072323957490652</v>
+        <v>0.073097469807875</v>
       </c>
       <c r="K2" t="n">
-        <v>0.127824472190842</v>
+        <v>0.13492987021165</v>
       </c>
       <c r="L2" t="n">
-        <v>0.109537861911021</v>
+        <v>0.118683496072156</v>
       </c>
       <c r="M2" t="n">
-        <v>0.09233027460305999</v>
+        <v>0.111311847647947</v>
       </c>
       <c r="N2" t="n">
-        <v>0.12921339361762</v>
+        <v>0.163327816302811</v>
       </c>
       <c r="O2" t="n">
-        <v>0.207692897706693</v>
+        <v>0.202663572275988</v>
       </c>
       <c r="P2" t="n">
-        <v>0.047420854959197</v>
+        <v>0.059057484582736</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.026225126058635</v>
+        <v>0.032215689763994</v>
       </c>
       <c r="R2" t="n">
-        <v>0.053313123469402</v>
+        <v>0.065266151902744</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.449291662777462</v>
+        <v>0.43997387573263</v>
       </c>
       <c r="C3" t="n">
-        <v>0.040351770316885</v>
+        <v>0.04066431630432</v>
       </c>
       <c r="D3" t="n">
-        <v>0.193817144941568</v>
+        <v>0.167644866592481</v>
       </c>
       <c r="E3" t="n">
-        <v>0.358111224027917</v>
+        <v>0.357715159979471</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002734036416939</v>
+        <v>0.007772564716105</v>
       </c>
       <c r="G3" t="n">
-        <v>0.049466414438227</v>
+        <v>0.06669764806712</v>
       </c>
       <c r="H3" t="n">
-        <v>0.085494440320472</v>
+        <v>0.103029677555292</v>
       </c>
       <c r="I3" t="n">
-        <v>0.202226406591198</v>
+        <v>0.143231953449317</v>
       </c>
       <c r="J3" t="n">
-        <v>0.073097469807875</v>
+        <v>0.070785837414235</v>
       </c>
       <c r="K3" t="n">
-        <v>0.13492987021165</v>
+        <v>0.108201200418493</v>
       </c>
       <c r="L3" t="n">
-        <v>0.118683496072156</v>
+        <v>0.114181057791519</v>
       </c>
       <c r="M3" t="n">
-        <v>0.111311847647947</v>
+        <v>0.105779224408255</v>
       </c>
       <c r="N3" t="n">
-        <v>0.163327816302811</v>
+        <v>0.146713535425567</v>
       </c>
       <c r="O3" t="n">
-        <v>0.202663572275988</v>
+        <v>0.220022624643261</v>
       </c>
       <c r="P3" t="n">
-        <v>0.059057484582736</v>
+        <v>0.080703617900706</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.032215689763994</v>
+        <v>0.02244288118948</v>
       </c>
       <c r="R3" t="n">
-        <v>0.065266151902744</v>
+        <v>0.06444069543136401</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.43997387573263</v>
+        <v>0.461945214412478</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04066431630432</v>
+        <v>0.05521802899519</v>
       </c>
       <c r="D4" t="n">
-        <v>0.167644866592481</v>
+        <v>0.200978741172618</v>
       </c>
       <c r="E4" t="n">
-        <v>0.357715159979471</v>
+        <v>0.384723106478782</v>
       </c>
       <c r="F4" t="n">
-        <v>0.007772564716105</v>
+        <v>0.009526608568085</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06669764806712</v>
+        <v>0.108068431569431</v>
       </c>
       <c r="H4" t="n">
-        <v>0.103029677555292</v>
+        <v>0.141485279346888</v>
       </c>
       <c r="I4" t="n">
-        <v>0.143231953449317</v>
+        <v>0.195751046152001</v>
       </c>
       <c r="J4" t="n">
-        <v>0.070785837414235</v>
+        <v>0.06342249486278299</v>
       </c>
       <c r="K4" t="n">
-        <v>0.108201200418493</v>
+        <v>0.119388247196816</v>
       </c>
       <c r="L4" t="n">
-        <v>0.114181057791519</v>
+        <v>0.137868539871642</v>
       </c>
       <c r="M4" t="n">
-        <v>0.105779224408255</v>
+        <v>0.134565658661568</v>
       </c>
       <c r="N4" t="n">
-        <v>0.146713535425567</v>
+        <v>0.109909835481387</v>
       </c>
       <c r="O4" t="n">
-        <v>0.220022624643261</v>
+        <v>0.220822356970429</v>
       </c>
       <c r="P4" t="n">
-        <v>0.080703617900706</v>
+        <v>0.108469436145105</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.02244288118948</v>
+        <v>0.02678529430603</v>
       </c>
       <c r="R4" t="n">
-        <v>0.06444069543136401</v>
+        <v>0.09846055391420699</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.461945214412478</v>
+        <v>0.083559925576004</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05521802899519</v>
+        <v>0.06722453166032701</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200978741172618</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.384723106478782</v>
-      </c>
+        <v>0.052750847167878</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>0.009526608568085</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.108068431569431</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.141485279346888</v>
-      </c>
+        <v>0.001814209976774</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.195751046152001</v>
+        <v>0.178166463212019</v>
       </c>
       <c r="J5" t="n">
-        <v>0.06342249486278299</v>
+        <v>0.198014901402042</v>
       </c>
       <c r="K5" t="n">
-        <v>0.119388247196816</v>
+        <v>0.060868874625774</v>
       </c>
       <c r="L5" t="n">
-        <v>0.137868539871642</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.134565658661568</v>
-      </c>
+        <v>0.067530379164441</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>0.109909835481387</v>
+        <v>0.07337289689646399</v>
       </c>
       <c r="O5" t="n">
-        <v>0.220822356970429</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.108469436145105</v>
-      </c>
+        <v>0.154039855789556</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>0.02678529430603</v>
+        <v>0.013110068351131</v>
       </c>
       <c r="R5" t="n">
-        <v>0.09846055391420699</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.083559925576004</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.06722453166032701</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.052750847167878</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>0.001814209976774</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
-        <v>0.178166463212019</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.198014901402042</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.060868874625774</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.067530379164441</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
-        <v>0.07337289689646399</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.154039855789556</v>
-      </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="n">
-        <v>0.013110068351131</v>
-      </c>
-      <c r="R6" t="n">
         <v>0.027188386307415</v>
       </c>
     </row>
